--- a/wepaysp-parent/问题列表.xlsx
+++ b/wepaysp-parent/问题列表.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iwt-workspaces\git-repo\wepaysp\wepaysp-parent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="一期开发问题" sheetId="1" r:id="rId1"/>
     <sheet name="二期工作" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一期开发问题!$B$1:$B$21</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -21,28 +29,16 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t>作者:
 1级：测试前必须修改
 2级：上线前必须修改
 3级：上线前尽量修改
@@ -55,146 +51,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题级别</t>
+  </si>
+  <si>
+    <t>当前状态</t>
   </si>
   <si>
     <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>1级</t>
+  </si>
+  <si>
+    <t>部署</t>
   </si>
   <si>
     <t xml:space="preserve">商户表的 SUB_MCH_ID 建立唯一索引 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>子代理商管理web页面删除父代理商字段。</t>
   </si>
   <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>未处理</t>
+  </si>
+  <si>
     <t>用户登录名称不允许设置superadmin之类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待协助处理</t>
+  </si>
+  <si>
+    <t>存储过程处理完毕，页面待修改（新增字段）</t>
+  </si>
+  <si>
+    <t>交易流水号问题，采用分布式ID产生方式</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>商户明细页面，出现异常信息。JSP解析success出错</t>
+  </si>
+  <si>
+    <t>生成二维码图片提供下载。</t>
+  </si>
+  <si>
+    <t>公众号支付流程的完善</t>
+  </si>
+  <si>
+    <t>门店没有统一账号，能管理和查看门店下相关信息。</t>
+  </si>
+  <si>
+    <t>员工分润统计中的分润字段保留两位小数。</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>退款功能。</t>
+  </si>
+  <si>
+    <t>2级</t>
+  </si>
+  <si>
+    <t>公众号支付后消息通知</t>
+  </si>
+  <si>
+    <t>sysPermissionService 疯狂GC问题修复</t>
+  </si>
+  <si>
+    <t>系统对账功能</t>
+  </si>
+  <si>
+    <t>收银台支付流程相关异常的完善</t>
+  </si>
+  <si>
+    <t>restful收银台接口对接</t>
+  </si>
+  <si>
+    <t>支付宝接入</t>
+  </si>
+  <si>
+    <t>公众号开发，实现APP功能</t>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照流程图完善</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>结算增加退款笔数和金额。trade_status = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易流水号问题，采用分布式ID产生方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成二维码图片提供下载。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店没有统一账号，能管理和查看门店下相关信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信刷卡支付SDK日志打印兼容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务商账户相关配置改造至数据库表中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>代理商分润统计中的分润字段保留两位小数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工分润统计中的分润字段保留两位小数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署</t>
-  </si>
-  <si>
-    <t>未处理</t>
-  </si>
-  <si>
-    <t>未处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-  </si>
-  <si>
-    <t>3级</t>
-  </si>
-  <si>
-    <t>2级</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号支付后消息通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysPermissionService 疯狂GC问题修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级</t>
-  </si>
-  <si>
-    <t>restful收银台接口对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统对账功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝接入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号开发，实现APP功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号支付流程的完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收银台支付流程相关异常的完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待协助处理</t>
-  </si>
-  <si>
-    <t>存储过程处理完毕，页面待修改（新增字段）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>定时任务处理支付处理中的订单。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信刷卡支付SDK日志打印兼容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户明细页面，出现异常信息。JSP解析success出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照流程图完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/5关闭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -206,8 +187,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -217,34 +219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,6 +236,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,12 +249,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,11 +263,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -297,7 +276,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -305,17 +284,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -325,7 +304,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -333,12 +312,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -347,18 +326,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -366,18 +345,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,25 +364,98 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,7 +469,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -699,16 +751,16 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="60.75" customWidth="1"/>
-    <col min="5" max="5" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -716,16 +768,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -733,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -748,13 +800,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -763,13 +815,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -778,16 +830,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -795,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -810,28 +862,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -840,13 +894,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -855,16 +909,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -872,13 +926,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -887,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -902,13 +956,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -917,13 +971,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -932,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -946,14 +1000,14 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -961,14 +1015,14 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -976,13 +1030,13 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="7"/>
@@ -991,14 +1045,14 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>30</v>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1006,41 +1060,41 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
+      <formula1>"1级,2级,3级,4级"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
       <formula1>"未处理,关闭,部署"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
-      <formula1>"1级,2级,3级,4级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"未处理,待协助处理,关闭,部署"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1053,30 +1107,30 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
 </worksheet>
 </file>
 
@@ -1086,9 +1140,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wepaysp-parent/问题列表.xlsx
+++ b/wepaysp-parent/问题列表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iwt-workspaces\git-repo\wepaysp\wepaysp-parent\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="11370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="一期开发问题" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一期开发问题!$B$1:$B$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一期开发问题!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,20 +24,51 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
-1级：测试前必须修改
-2级：上线前必须修改
-3级：上线前尽量修改
-4级：有时间再修改</t>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1级：测试前必须修改
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">2级：上线前必须修改
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">3级：上线前尽量修改
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4级：有时间再修改</t>
         </r>
       </text>
     </comment>
@@ -51,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>序号</t>
   </si>
@@ -89,30 +115,51 @@
     <t>用户登录名称不允许设置superadmin之类</t>
   </si>
   <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>结算增加退款笔数和金额。trade_status = 1</t>
+  </si>
+  <si>
+    <t>存储过程处理完毕，页面待修改（新增字段）</t>
+  </si>
+  <si>
+    <t>交易流水号问题，采用分布式ID产生方式</t>
+  </si>
+  <si>
+    <t>商户明细页面，出现异常信息。JSP解析success出错</t>
+  </si>
+  <si>
+    <t>2016/12/5关闭</t>
+  </si>
+  <si>
+    <t>定时任务处理支付处理中的订单。</t>
+  </si>
+  <si>
+    <t>生成二维码图片提供下载。</t>
+  </si>
+  <si>
     <t>待协助处理</t>
   </si>
   <si>
-    <t>存储过程处理完毕，页面待修改（新增字段）</t>
-  </si>
-  <si>
-    <t>交易流水号问题，采用分布式ID产生方式</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>商户明细页面，出现异常信息。JSP解析success出错</t>
-  </si>
-  <si>
-    <t>生成二维码图片提供下载。</t>
-  </si>
-  <si>
     <t>公众号支付流程的完善</t>
   </si>
   <si>
+    <t>参照流程图完善</t>
+  </si>
+  <si>
     <t>门店没有统一账号，能管理和查看门店下相关信息。</t>
   </si>
   <si>
+    <t>2016/12/5关闭（店长新增修改，交易明细和结算修改）</t>
+  </si>
+  <si>
+    <t>服务商账户相关配置改造至数据库表中。</t>
+  </si>
+  <si>
+    <t>代理商分润统计中的分润字段保留两位小数。</t>
+  </si>
+  <si>
     <t>员工分润统计中的分润字段保留两位小数。</t>
   </si>
   <si>
@@ -137,6 +184,9 @@
     <t>收银台支付流程相关异常的完善</t>
   </si>
   <si>
+    <t>微信刷卡支付SDK日志打印兼容</t>
+  </si>
+  <si>
     <t>restful收银台接口对接</t>
   </si>
   <si>
@@ -144,45 +194,19 @@
   </si>
   <si>
     <t>公众号开发，实现APP功能</t>
-  </si>
-  <si>
-    <t>部署</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照流程图完善</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算增加退款笔数和金额。trade_status = 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信刷卡支付SDK日志打印兼容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务商账户相关配置改造至数据库表中。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商分润统计中的分润字段保留两位小数。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务处理支付处理中的订单。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/5关闭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,34 +224,164 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +406,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -341,9 +681,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -363,101 +945,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -469,7 +1022,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -747,14 +1300,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -763,7 +1317,7 @@
     <col min="5" max="5" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -780,22 +1334,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>31</v>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -808,9 +1362,9 @@
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" hidden="1" spans="1:5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -823,9 +1377,9 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -833,16 +1387,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -853,11 +1407,11 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -865,16 +1419,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -884,12 +1438,12 @@
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -899,12 +1453,12 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -912,16 +1466,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -929,14 +1483,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -946,12 +1502,12 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -959,14 +1515,14 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -974,175 +1530,186 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" hidden="1" spans="1:5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" hidden="1" spans="1:5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" hidden="1" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" hidden="1" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" hidden="1" spans="1:5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+      <c r="D20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="14.25" hidden="1" spans="1:5">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:E21">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="1级"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
+      <formula1>"未处理,关闭,部署"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
       <formula1>"1级,2级,3级,4级"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
-      <formula1>"未处理,关闭,部署"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"未处理,待协助处理,关闭,部署"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/wepaysp-parent/问题列表.xlsx
+++ b/wepaysp-parent/问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="21495" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="一期开发问题" sheetId="1" r:id="rId1"/>
@@ -29,46 +29,15 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1级：测试前必须修改
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2级：上线前必须修改
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3级：上线前尽量修改
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>4级：有时间再修改</t>
+1级：测试前必须修改
+2级：上线前必须修改
+3级：上线前尽量修改
+4级：有时间再修改</t>
         </r>
       </text>
     </comment>
@@ -115,52 +84,54 @@
     <t>用户登录名称不允许设置superadmin之类</t>
   </si>
   <si>
+    <t>结算增加退款笔数和金额。trade_status = 1</t>
+  </si>
+  <si>
+    <t>存储过程处理完毕，页面待修改（新增字段）；
+2016/12/5关闭；2016/12/6部署；</t>
+  </si>
+  <si>
+    <t>交易流水号问题，采用分布式ID产生方式</t>
+  </si>
+  <si>
+    <t>商户明细页面，出现异常信息。JSP解析success出错</t>
+  </si>
+  <si>
+    <t>2016/12/5关闭；2016/12/6部署；</t>
+  </si>
+  <si>
+    <t>定时任务处理支付处理中的订单。</t>
+  </si>
+  <si>
+    <t>生成二维码图片提供下载。</t>
+  </si>
+  <si>
+    <t>待协助处理</t>
+  </si>
+  <si>
+    <t>公众号支付流程的完善</t>
+  </si>
+  <si>
+    <t>参照流程图完善</t>
+  </si>
+  <si>
     <t>关闭</t>
   </si>
   <si>
-    <t>结算增加退款笔数和金额。trade_status = 1</t>
-  </si>
-  <si>
-    <t>存储过程处理完毕，页面待修改（新增字段）</t>
-  </si>
-  <si>
-    <t>交易流水号问题，采用分布式ID产生方式</t>
-  </si>
-  <si>
-    <t>商户明细页面，出现异常信息。JSP解析success出错</t>
-  </si>
-  <si>
-    <t>2016/12/5关闭</t>
-  </si>
-  <si>
-    <t>定时任务处理支付处理中的订单。</t>
-  </si>
-  <si>
-    <t>生成二维码图片提供下载。</t>
-  </si>
-  <si>
-    <t>待协助处理</t>
-  </si>
-  <si>
-    <t>公众号支付流程的完善</t>
-  </si>
-  <si>
-    <t>参照流程图完善</t>
-  </si>
-  <si>
     <t>门店没有统一账号，能管理和查看门店下相关信息。</t>
   </si>
   <si>
-    <t>2016/12/5关闭（店长新增修改，交易明细和结算修改）</t>
+    <t>2016/12/5关闭（店长新增修改，交易明细和结算修改）；
+2016/12/6部署；</t>
   </si>
   <si>
     <t>服务商账户相关配置改造至数据库表中。</t>
   </si>
   <si>
-    <t>代理商分润统计中的分润字段保留两位小数。</t>
-  </si>
-  <si>
-    <t>员工分润统计中的分润字段保留两位小数。</t>
+    <t>代理商分润统计中的分润字段保留两位小数，费率‰格式显示。</t>
+  </si>
+  <si>
+    <t>员工分润统计中的分润字段保留两位小数，费率‰格式显示。</t>
   </si>
   <si>
     <t>4级</t>
@@ -203,8 +174,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -238,28 +209,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +238,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,7 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,11 +283,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,12 +307,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -352,30 +347,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,21 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -726,6 +682,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,16 +768,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,119 +786,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,12 +916,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1022,7 +999,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1301,11 +1278,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1364,7 +1341,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" hidden="1" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1379,7 +1356,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1387,16 +1364,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" spans="1:5">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1407,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -1419,13 +1396,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1438,8 +1415,8 @@
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -1453,8 +1430,8 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>19</v>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -1466,16 +1443,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" ht="40.5" spans="1:5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1483,12 +1460,12 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1502,7 +1479,7 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="8"/>
@@ -1515,12 +1492,14 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5">
@@ -1530,14 +1509,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" hidden="1" spans="1:5">
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1552,98 +1533,91 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" hidden="1" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" hidden="1" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" hidden="1" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" hidden="1" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" hidden="1" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" ht="14.25" hidden="1" spans="1:5">
-      <c r="A21" s="15">
+    <row r="21" ht="14.25" spans="1:5">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="1级"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
       <formula1>"未处理,关闭,部署"</formula1>

--- a/wepaysp-parent/问题列表.xlsx
+++ b/wepaysp-parent/问题列表.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>序号</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>参照流程图完善</t>
-  </si>
-  <si>
-    <t>关闭</t>
   </si>
   <si>
     <t>门店没有统一账号，能管理和查看门店下相关信息。</t>
@@ -172,12 +169,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,28 +192,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +244,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -259,17 +259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,40 +313,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,6 +369,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,175 +459,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,24 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -686,17 +658,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +699,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -726,27 +718,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,16 +758,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,119 +776,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,13 +912,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,7 +1269,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1401,7 +1388,7 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1415,7 +1402,7 @@
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="8"/>
@@ -1430,7 +1417,7 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="8"/>
@@ -1445,10 +1432,10 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1460,13 +1447,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1479,8 +1466,8 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>25</v>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -1495,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>16</v>
@@ -1512,9 +1499,9 @@
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1523,13 +1510,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -1537,14 +1524,14 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -1552,14 +1539,14 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>32</v>
+      <c r="D17" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1567,14 +1554,14 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>33</v>
+      <c r="D18" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -1582,14 +1569,14 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>34</v>
+      <c r="D19" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -1597,36 +1584,36 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>35</v>
+      <c r="D20" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
-      <formula1>"未处理,关闭,部署"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
       <formula1>"1级,2级,3级,4级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"未处理,待协助处理,关闭,部署"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
+      <formula1>"未处理,关闭,部署"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,17 +1639,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/wepaysp-parent/问题列表.xlsx
+++ b/wepaysp-parent/问题列表.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>序号</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>生成二维码图片提供下载。</t>
+  </si>
+  <si>
+    <t>2016/12/7关闭；2016/12/8部署；</t>
   </si>
   <si>
     <t>待协助处理</t>
@@ -171,10 +174,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +195,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -200,6 +210,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,37 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -369,6 +379,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,7 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +457,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,30 +541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,61 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,137 +768,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,8 +924,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,7 +1282,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1415,12 +1428,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5">
@@ -1430,13 +1445,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
@@ -1449,11 +1464,11 @@
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>22</v>
+      <c r="D11" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1466,8 +1481,8 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -1482,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>16</v>
@@ -1499,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>16</v>
@@ -1510,13 +1525,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -1524,14 +1539,14 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>30</v>
+      <c r="D16" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -1539,14 +1554,14 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>31</v>
+      <c r="D17" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1554,14 +1569,14 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>32</v>
+      <c r="D18" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -1569,14 +1584,14 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>33</v>
+      <c r="D19" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -1584,36 +1599,36 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>34</v>
+      <c r="D20" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
+      <formula1>"未处理,关闭,部署"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
       <formula1>"1级,2级,3级,4级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"未处理,待协助处理,关闭,部署"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
-      <formula1>"未处理,关闭,部署"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,17 +1654,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/wepaysp-parent/问题列表.xlsx
+++ b/wepaysp-parent/问题列表.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一期开发问题!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一期开发问题!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>序号</t>
   </si>
@@ -103,19 +103,19 @@
     <t>定时任务处理支付处理中的订单。</t>
   </si>
   <si>
+    <t>2016/12/14关闭；2016/12/14部署；</t>
+  </si>
+  <si>
     <t>生成二维码图片提供下载。</t>
   </si>
   <si>
     <t>2016/12/7关闭；2016/12/8部署；</t>
   </si>
   <si>
-    <t>待协助处理</t>
-  </si>
-  <si>
     <t>公众号支付流程的完善</t>
   </si>
   <si>
-    <t>参照流程图完善</t>
+    <t>参照流程图完善；2016/12/19关闭；2016/12/19部署；</t>
   </si>
   <si>
     <t>门店没有统一账号，能管理和查看门店下相关信息。</t>
@@ -128,6 +128,9 @@
     <t>服务商账户相关配置改造至数据库表中。</t>
   </si>
   <si>
+    <t>2016/12/16关闭；2016/12/19部署；</t>
+  </si>
+  <si>
     <t>代理商分润统计中的分润字段保留两位小数，费率‰格式显示。</t>
   </si>
   <si>
@@ -144,6 +147,24 @@
   </si>
   <si>
     <t>公众号支付后消息通知</t>
+  </si>
+  <si>
+    <t>2016/12/18关闭；2016/12/19部署；</t>
+  </si>
+  <si>
+    <t>门店、收银员绑定支付成功通知</t>
+  </si>
+  <si>
+    <t>二维码一码双号支持微信和支付宝解析</t>
+  </si>
+  <si>
+    <t>2016/12/19关闭；2016/12/19部署；</t>
+  </si>
+  <si>
+    <t>应用日志文件切割配置</t>
+  </si>
+  <si>
+    <t>每小时分类切割，2016/12/19关闭；2016/12/19部署；</t>
   </si>
   <si>
     <t>sysPermissionService 疯狂GC问题修复</t>
@@ -174,8 +195,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -195,6 +216,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -202,45 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +259,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -330,23 +351,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,19 +400,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,78 +448,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,13 +514,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,56 +584,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -619,17 +640,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -756,142 +766,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,17 +934,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1279,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1413,12 +1419,14 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
@@ -1431,10 +1439,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="13" t="s">
         <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1445,12 +1453,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1464,7 +1472,7 @@
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1479,12 +1487,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5">
@@ -1497,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>16</v>
@@ -1514,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>16</v>
@@ -1525,13 +1535,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -1540,94 +1550,149 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="17">
+    <row r="21" spans="1:5">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:5">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C63">
       <formula1>"未处理,关闭,部署"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B18 B19 B2:B16 B20:B24">
       <formula1>"1级,2级,3级,4级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C2:C16 C20:C24">
       <formula1>"未处理,待协助处理,关闭,部署"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1654,17 +1719,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/wepaysp-parent/问题列表.xlsx
+++ b/wepaysp-parent/问题列表.xlsx
@@ -193,12 +193,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +217,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -351,23 +344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +399,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,30 +435,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,48 +447,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,6 +507,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,7 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,48 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +771,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,7 +931,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -1288,7 +1280,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1592,7 +1584,7 @@
       <c r="D18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1679,21 +1671,21 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C63">
-      <formula1>"未处理,关闭,部署"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B18 B19 B2:B16 B20:B24">
       <formula1>"1级,2级,3级,4级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C2:C16 C20:C24">
       <formula1>"未处理,待协助处理,关闭,部署"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C63">
+      <formula1>"未处理,关闭,部署"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
